--- a/project/excel/monarch_technical_documentation.xlsx
+++ b/project/excel/monarch_technical_documentation.xlsx
@@ -4,25 +4,23 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="15" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="13" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Address" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="FamilialRelationship" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="HasAliases" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="NamedThing" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Organization" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Person" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Registry" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Relationship" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Address1" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="FamilialRelationship1" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="HasAliases1" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="NamedThing1" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Organization1" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Person1" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Registry1" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Relationship2" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="DataAsset" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Documentation" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Download" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Resource" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="ResourceRegistry" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Standard" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Tool" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="DataAsset1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Documentation1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Download1" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Resource1" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="ResourceRegistry1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Standard1" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Tool1" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,6 +426,75 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>grant</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>documentation</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>monarch_contribution</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>dataAsset__download</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>dataAsset__category</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation sqref="H2:H1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"Biomedical Data"</formula1>
+    </dataValidation>
+    <dataValidation sqref="H2:H1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"Biomedical Data"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -439,89 +506,68 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>street</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>city</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>postal_code</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>started_at_time</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ended_at_time</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>related_to</t>
+          <t>download__url</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>download__release_status</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>download__file_format</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>FamilialRelationship_type</t>
+          <t>grant</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>FamilialRelationship_related to</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>hasAliases__aliases</t>
+          <t>documentation</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>monarch_contribution</t>
         </is>
       </c>
     </row>
@@ -536,7 +582,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -562,7 +608,32 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>image</t>
+          <t>grant</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>monarch_contribution</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>resourceRegistry__data</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>resourceRegistry__standards</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>resourceRegistry__tools</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>resourceRegistry__documentation</t>
         </is>
       </c>
     </row>
@@ -603,22 +674,22 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>image</t>
+          <t>grant</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>mission_statement</t>
+          <t>documentation</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>founding_date</t>
+          <t>monarch_contribution</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>hasAliases__aliases</t>
+          <t>standard__category</t>
         </is>
       </c>
     </row>
@@ -633,7 +704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,204 +730,194 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>image</t>
+          <t>grant</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Person_primary_email</t>
+          <t>documentation</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>birth_date</t>
+          <t>monarch_contribution</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>age_in_years</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>current_address</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>has_familial_relationships</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>hasAliases__aliases</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>registry__persons</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>registry__organizations</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>started_at_time</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ended_at_time</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>related_to</t>
+          <t>url</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>started_at_time</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ended_at_time</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>related_to</t>
+          <t>grant</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>documentation</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>monarch_contribution</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>download__url</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>download__release_status</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>download__file_format</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>FamilialRelationship_type</t>
+          <t>grant</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>FamilialRelationship_related to</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
+          <t>documentation</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>monarch_contribution</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
     <dataValidation sqref="D2:D1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"SIBLING_OF,PARENT_OF,CHILD_OF"</formula1>
+      <formula1>"Phenomics First,Monarch R24,HPO,Exomiser"</formula1>
+    </dataValidation>
+    <dataValidation sqref="F2:F1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"Lead"</formula1>
     </dataValidation>
     <dataValidation sqref="D2:D1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"SIBLING_OF,PARENT_OF,CHILD_OF"</formula1>
+      <formula1>"Phenomics First,Monarch R24,HPO,Exomiser"</formula1>
+    </dataValidation>
+    <dataValidation sqref="F2:F1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"Lead"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>hasAliases__aliases</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -882,16 +943,41 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>image</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+          <t>grant</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>monarch_contribution</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>resourceRegistry__data</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>resourceRegistry__standards</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>resourceRegistry__tools</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>resourceRegistry__documentation</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -923,37 +1009,45 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>image</t>
+          <t>grant</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>mission_statement</t>
+          <t>documentation</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>founding_date</t>
+          <t>monarch_contribution</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>hasAliases__aliases</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J1"/>
+          <t>standard__category</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation sqref="G2:G1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"Ontology,Data Standard"</formula1>
+    </dataValidation>
+    <dataValidation sqref="G2:G1048576" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>"Ontology,Data Standard"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -979,145 +1073,139 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>image</t>
+          <t>grant</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Person_primary_email</t>
+          <t>documentation</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>birth_date</t>
+          <t>monarch_contribution</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>age_in_years</t>
+          <t>url</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>grant</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>documentation</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>monarch_contribution</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>dataAsset__download</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>current_address</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>has_familial_relationships</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>hasAliases__aliases</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>registry__persons</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>registry__organizations</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>started_at_time</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>ended_at_time</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>related_to</t>
+          <t>dataAsset__category</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>description</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>type</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>street</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>city</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>postal_code</t>
+          <t>grant</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>documentation</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>monarch_contribution</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>url</t>
         </is>
       </c>
     </row>
